--- a/QP1/Results_1010.xlsx
+++ b/QP1/Results_1010.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8550" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20640" windowHeight="8550" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Probability" sheetId="1" r:id="rId1"/>
     <sheet name="Magnitude" sheetId="3" r:id="rId2"/>
+    <sheet name="Delay~365" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="117">
   <si>
     <t>Treat</t>
   </si>
@@ -301,6 +302,81 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>(0)</t>
+  </si>
+  <si>
+    <t>Adjusted R-squared</t>
+  </si>
+  <si>
+    <t>-15</t>
+  </si>
+  <si>
+    <t>34 ***</t>
+  </si>
+  <si>
+    <t>Post</t>
+  </si>
+  <si>
+    <t>18***</t>
+  </si>
+  <si>
+    <t>(-3)</t>
+  </si>
+  <si>
+    <t>-28 ***</t>
+  </si>
+  <si>
+    <t>Small-business projects</t>
+  </si>
+  <si>
+    <t>Non-small business projects</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Delay = 364</t>
+  </si>
+  <si>
+    <t>Delay = 365</t>
+  </si>
+  <si>
+    <t>Delay = 366</t>
+  </si>
+  <si>
+    <t>Delay = 363</t>
+  </si>
+  <si>
+    <t>Delay = 367</t>
+  </si>
+  <si>
+    <t>Delay = 368</t>
+  </si>
+  <si>
+    <t>14***</t>
+  </si>
+  <si>
+    <t>(6)</t>
+  </si>
+  <si>
+    <t>-10 **</t>
+  </si>
+  <si>
+    <t>-10 *</t>
+  </si>
+  <si>
+    <t>Estimation results for avg. nonzero delay without Delay=365,366</t>
+  </si>
+  <si>
+    <t>Num. of active projects with given delay days</t>
+  </si>
+  <si>
+    <t>-13**</t>
+  </si>
+  <si>
+    <t>-11 *</t>
   </si>
 </sst>
 </file>
@@ -332,7 +408,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -358,11 +434,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -388,6 +475,20 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -396,10 +497,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -752,7 +860,7 @@
       </c>
     </row>
     <row r="5" spans="2:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="2" t="s">
@@ -764,7 +872,7 @@
       <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="20" t="s">
         <v>0</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -778,7 +886,7 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
@@ -788,7 +896,7 @@
       <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="14"/>
+      <c r="G6" s="20"/>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
@@ -800,7 +908,7 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="2">
@@ -812,7 +920,7 @@
       <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="20" t="s">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -826,7 +934,7 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="4" t="s">
         <v>11</v>
       </c>
@@ -836,7 +944,7 @@
       <c r="E8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="15"/>
+      <c r="G8" s="21"/>
       <c r="H8" s="4" t="s">
         <v>11</v>
       </c>
@@ -926,17 +1034,17 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="16" t="s">
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
@@ -963,7 +1071,7 @@
       <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
+      <c r="E16" s="14"/>
       <c r="F16" s="6"/>
       <c r="G16" s="7" t="s">
         <v>2</v>
@@ -973,7 +1081,7 @@
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
@@ -983,7 +1091,7 @@
         <v>41</v>
       </c>
       <c r="E17" s="3"/>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="20" t="s">
         <v>0</v>
       </c>
       <c r="G17" s="2" t="s">
@@ -994,7 +1102,7 @@
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
         <v>32</v>
       </c>
@@ -1002,7 +1110,7 @@
         <v>42</v>
       </c>
       <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1011,7 +1119,7 @@
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="20" t="s">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1021,7 +1129,7 @@
         <v>43</v>
       </c>
       <c r="E19" s="3"/>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="20" t="s">
         <v>1</v>
       </c>
       <c r="G19" s="2" t="s">
@@ -1032,7 +1140,7 @@
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1040,7 +1148,7 @@
         <v>32</v>
       </c>
       <c r="E20" s="3"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1049,7 +1157,7 @@
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="2" t="s">
@@ -1059,7 +1167,7 @@
         <v>34</v>
       </c>
       <c r="E21" s="3"/>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="20" t="s">
         <v>25</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1070,7 +1178,7 @@
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1078,7 +1186,7 @@
         <v>11</v>
       </c>
       <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="2" t="s">
         <v>47</v>
       </c>
@@ -1087,7 +1195,7 @@
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="20" t="s">
         <v>26</v>
       </c>
       <c r="C23" s="2" t="s">
@@ -1097,7 +1205,7 @@
         <v>44</v>
       </c>
       <c r="E23" s="3"/>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="20" t="s">
         <v>26</v>
       </c>
       <c r="G23" s="2" t="s">
@@ -1108,7 +1216,7 @@
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
@@ -1116,7 +1224,7 @@
         <v>45</v>
       </c>
       <c r="E24" s="3"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="2" t="s">
         <v>47</v>
       </c>
@@ -1125,7 +1233,7 @@
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="2" t="s">
@@ -1135,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="E25" s="3"/>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="20" t="s">
         <v>27</v>
       </c>
       <c r="G25" s="2" t="s">
@@ -1146,7 +1254,7 @@
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1154,7 +1262,7 @@
         <v>11</v>
       </c>
       <c r="E26" s="3"/>
-      <c r="F26" s="14"/>
+      <c r="F26" s="20"/>
       <c r="G26" s="2" t="s">
         <v>11</v>
       </c>
@@ -1163,7 +1271,7 @@
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="C27" s="2" t="s">
@@ -1173,7 +1281,7 @@
         <v>46</v>
       </c>
       <c r="E27" s="3"/>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="20" t="s">
         <v>28</v>
       </c>
       <c r="G27" s="2" t="s">
@@ -1184,7 +1292,7 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
@@ -1192,7 +1300,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="3"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="20"/>
       <c r="G28" s="2" t="s">
         <v>50</v>
       </c>
@@ -1201,7 +1309,7 @@
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="20" t="s">
         <v>29</v>
       </c>
       <c r="C29" s="2" t="s">
@@ -1211,7 +1319,7 @@
         <v>39</v>
       </c>
       <c r="E29" s="3"/>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="20" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="2" t="s">
@@ -1222,7 +1330,7 @@
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1230,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="E30" s="3"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="20"/>
       <c r="G30" s="2" t="s">
         <v>47</v>
       </c>
@@ -1239,7 +1347,7 @@
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -1249,7 +1357,7 @@
         <v>23</v>
       </c>
       <c r="E31" s="3"/>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="20" t="s">
         <v>30</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -1260,7 +1368,7 @@
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1268,7 +1376,7 @@
         <v>11</v>
       </c>
       <c r="E32" s="3"/>
-      <c r="F32" s="15"/>
+      <c r="F32" s="21"/>
       <c r="G32" s="4" t="s">
         <v>50</v>
       </c>
@@ -1341,18 +1449,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F29:F30"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="F27:F28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B7:B8"/>
@@ -1363,6 +1465,12 @@
     <mergeCell ref="B14:D14"/>
     <mergeCell ref="F14:H14"/>
     <mergeCell ref="F17:F18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="F31:F32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1374,27 +1482,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K37"/>
+  <dimension ref="B2:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="23" t="s">
         <v>59</v>
       </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="10"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -1403,13 +1515,16 @@
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>5</v>
       </c>
       <c r="G3" s="8"/>
@@ -1429,133 +1544,143 @@
       <c r="E4" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="F4" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="G4" s="8"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="8"/>
     </row>
-    <row r="5" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="8"/>
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="19" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="2:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C7" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="8"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="14"/>
-      <c r="C6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="14"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="3"/>
       <c r="K7" s="8"/>
     </row>
     <row r="8" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G8" s="14"/>
+      <c r="G8" s="20"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="3"/>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="10" t="s">
+    <row r="9" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="8"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="21"/>
+      <c r="C10" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="8"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8" t="s">
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" s="6" t="s">
+      <c r="D11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G11" s="10"/>
@@ -1564,324 +1689,467 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
     </row>
-    <row r="14" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="16" t="s">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="10"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="18">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E14" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="22" t="s">
         <v>60</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="12"/>
+      <c r="C17" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="E17" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="2:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-      <c r="C16" s="7" t="s">
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="2:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="18"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="14" t="s">
+      <c r="E18" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+    </row>
+    <row r="19" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+    </row>
+    <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C21" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D21" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="C18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="14"/>
-      <c r="C20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="14"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="14"/>
+      <c r="E22" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22" s="20"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="14" t="s">
-        <v>26</v>
+      <c r="B23" s="20" t="s">
+        <v>1</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="14"/>
+        <v>53</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F23" s="20"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="14"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="14"/>
+      <c r="E24" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="20"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="14" t="s">
-        <v>27</v>
+      <c r="B25" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E25" s="3"/>
-      <c r="F25" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="20"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="14"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="14"/>
+        <v>74</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="20"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="14" t="s">
-        <v>28</v>
+      <c r="B27" s="20" t="s">
+        <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="14"/>
+        <v>76</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F27" s="20"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B28" s="14"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="14"/>
+        <v>77</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="20"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B29" s="14" t="s">
-        <v>29</v>
+      <c r="B29" s="20" t="s">
+        <v>27</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="14"/>
+        <v>79</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="20"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B30" s="14"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="14"/>
+        <v>78</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F30" s="20"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B31" s="14" t="s">
-        <v>30</v>
+      <c r="B31" s="20" t="s">
+        <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="14"/>
+        <v>80</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="20"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B32" s="15"/>
-      <c r="C32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="14"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F32" s="20"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="20"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="21"/>
+      <c r="C36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E35" s="8"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F37" s="8"/>
+      <c r="D37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="10"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0.09</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0.24</v>
+      </c>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="25">
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="F27:F28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="B31:B32"/>
@@ -1890,25 +2158,356 @@
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="F25:F26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="F21:F22"/>
+    <mergeCell ref="B2:F2"/>
     <mergeCell ref="B5:B6"/>
-    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B16:E16"/>
     <mergeCell ref="B7:B8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="F14:H14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C6:E8 C3:E3 C15:D15 C17:D32" numberStoredAsText="1"/>
+    <ignoredError sqref="C20:E36" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+    </row>
+    <row r="3" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <f>SUM(C4:D4)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>68</v>
+      </c>
+      <c r="D5">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="0">SUM(C5:D5)</f>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>1513</v>
+      </c>
+      <c r="D6">
+        <v>1897</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>3410</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>1052</v>
+      </c>
+      <c r="D7">
+        <v>1281</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2333</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>33</v>
+      </c>
+      <c r="D8">
+        <v>35</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C9" s="6">
+        <v>13</v>
+      </c>
+      <c r="D9" s="6">
+        <v>11</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13" s="12"/>
+      <c r="C13" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="21"/>
+      <c r="C20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C24" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.02</v>
+      </c>
+      <c r="E24" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F24" s="18">
+        <v>0.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B2:E2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="C13:F13 C16:F20" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>